--- a/export_excel_parts/leave_credits.xlsx
+++ b/export_excel_parts/leave_credits.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Xampp\htdocs\hrsystem2\export_excel_parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001DFA0F-A831-46EF-88E9-901602641C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97D8825-8684-4B0D-A844-6759AA483D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6925DC7-FA69-4392-951F-57A047FC49E4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>SPECIAL PREVILEGE LEAVE</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>MANTATORY/ FORCED LEAVE</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>MINUTE</t>
   </si>
 </sst>
 </file>
@@ -158,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -280,15 +295,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -307,46 +396,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -663,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF1BB08-AA76-4BD8-BF74-90D5A5D8F3B8}">
-  <dimension ref="A2:M31"/>
+  <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,544 +775,677 @@
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="35"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="34"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="35"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="35"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="34"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="35"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="34"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="35"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="34"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="35"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="34"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="34"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="35"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="21"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="H28:I29"/>
-    <mergeCell ref="J28:K29"/>
-    <mergeCell ref="L28:M29"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="L30:M31"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="L24:M25"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B2:M3"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="J22:K23"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="H20:I21"/>
+  <mergeCells count="114">
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="B8:C9"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="H8:I9"/>
     <mergeCell ref="J8:K9"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="F14:G15"/>
     <mergeCell ref="J12:K13"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="B22:C23"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="D12:E13"/>
     <mergeCell ref="D14:E15"/>
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="D18:E19"/>
     <mergeCell ref="D20:E21"/>
-    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D22:E23"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B20:C21"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B2:M3"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="L24:M25"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="J28:K29"/>
+    <mergeCell ref="L28:M29"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="J32:K33"/>
+    <mergeCell ref="L32:M33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
